--- a/Code/Results/Cases/Case_3_199/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_3_199/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.019999999999999</v>
       </c>
       <c r="C2">
-        <v>1.014343143022083</v>
+        <v>1.037242964115984</v>
       </c>
       <c r="D2">
-        <v>1.034032134454732</v>
+        <v>1.045846838477866</v>
       </c>
       <c r="E2">
-        <v>1.018814468433627</v>
+        <v>1.036062008959118</v>
       </c>
       <c r="F2">
-        <v>1.040186949989895</v>
+        <v>1.056812275636661</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.054154478028945</v>
+        <v>1.043584320200308</v>
       </c>
       <c r="J2">
-        <v>1.036103155818591</v>
+        <v>1.042346897455935</v>
       </c>
       <c r="K2">
-        <v>1.04503686510827</v>
+        <v>1.048613931761185</v>
       </c>
       <c r="L2">
-        <v>1.030017765838537</v>
+        <v>1.038856826762764</v>
       </c>
       <c r="M2">
-        <v>1.051113429574384</v>
+        <v>1.059548960345595</v>
       </c>
       <c r="N2">
-        <v>1.037574541142546</v>
+        <v>1.043827149609183</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>1.018364566035641</v>
+        <v>1.038093349774712</v>
       </c>
       <c r="D3">
-        <v>1.037109938991466</v>
+        <v>1.046519585135164</v>
       </c>
       <c r="E3">
-        <v>1.022003304974246</v>
+        <v>1.03678250286227</v>
       </c>
       <c r="F3">
-        <v>1.043924384546828</v>
+        <v>1.057653666148145</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.055558906739847</v>
+        <v>1.043824413062562</v>
       </c>
       <c r="J3">
-        <v>1.038366813256247</v>
+        <v>1.042842079608715</v>
       </c>
       <c r="K3">
-        <v>1.047289028038381</v>
+        <v>1.049098562681563</v>
       </c>
       <c r="L3">
-        <v>1.032362182209258</v>
+        <v>1.039387080923744</v>
       </c>
       <c r="M3">
-        <v>1.054024476611749</v>
+        <v>1.060203993285993</v>
       </c>
       <c r="N3">
-        <v>1.039841413233409</v>
+        <v>1.044323034977418</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.020918059503755</v>
+        <v>1.038644175181942</v>
       </c>
       <c r="D4">
-        <v>1.039066875185676</v>
+        <v>1.046955368983055</v>
       </c>
       <c r="E4">
-        <v>1.024033741227204</v>
+        <v>1.037249576455663</v>
       </c>
       <c r="F4">
-        <v>1.046302188117012</v>
+        <v>1.058198951808635</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.056441244993803</v>
+        <v>1.043978760668798</v>
       </c>
       <c r="J4">
-        <v>1.039801403649772</v>
+        <v>1.043162402411283</v>
       </c>
       <c r="K4">
-        <v>1.048715597368317</v>
+        <v>1.049411940765784</v>
       </c>
       <c r="L4">
-        <v>1.033850501779136</v>
+        <v>1.039730385204654</v>
       </c>
       <c r="M4">
-        <v>1.055872146192327</v>
+        <v>1.060628044169536</v>
       </c>
       <c r="N4">
-        <v>1.041278040909842</v>
+        <v>1.044643812675107</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.021980269368477</v>
+        <v>1.038875876846415</v>
       </c>
       <c r="D5">
-        <v>1.039881514743366</v>
+        <v>1.047138683729103</v>
       </c>
       <c r="E5">
-        <v>1.024879679863124</v>
+        <v>1.037446139725525</v>
       </c>
       <c r="F5">
-        <v>1.047292393061577</v>
+        <v>1.058428391440818</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.056805984173474</v>
+        <v>1.044043406149814</v>
       </c>
       <c r="J5">
-        <v>1.040397476394888</v>
+        <v>1.043297042576971</v>
       </c>
       <c r="K5">
-        <v>1.049308154408417</v>
+        <v>1.04954363322608</v>
       </c>
       <c r="L5">
-        <v>1.034469511155365</v>
+        <v>1.039874755524607</v>
       </c>
       <c r="M5">
-        <v>1.056640526100267</v>
+        <v>1.060806361634949</v>
       </c>
       <c r="N5">
-        <v>1.041874960146627</v>
+        <v>1.044778644045273</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.022157967994865</v>
+        <v>1.038914788426794</v>
       </c>
       <c r="D6">
-        <v>1.040017830360136</v>
+        <v>1.047169469553113</v>
       </c>
       <c r="E6">
-        <v>1.025021274268665</v>
+        <v>1.037479155564776</v>
       </c>
       <c r="F6">
-        <v>1.04745810837187</v>
+        <v>1.058466927128178</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.056866865816335</v>
+        <v>1.044054246181247</v>
       </c>
       <c r="J6">
-        <v>1.040497152766722</v>
+        <v>1.043319647836843</v>
       </c>
       <c r="K6">
-        <v>1.049407231942021</v>
+        <v>1.049565741901355</v>
       </c>
       <c r="L6">
-        <v>1.034573059045252</v>
+        <v>1.039898998548328</v>
       </c>
       <c r="M6">
-        <v>1.056769055586981</v>
+        <v>1.060836304601036</v>
       </c>
       <c r="N6">
-        <v>1.041974778070342</v>
+        <v>1.044801281407207</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.020932296649699</v>
+        <v>1.03864727066374</v>
       </c>
       <c r="D7">
-        <v>1.039077791798268</v>
+        <v>1.046957818008831</v>
       </c>
       <c r="E7">
-        <v>1.024045074484756</v>
+        <v>1.037252202138309</v>
       </c>
       <c r="F7">
-        <v>1.046315455938946</v>
+        <v>1.058202016802683</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.056446142834045</v>
+        <v>1.043979625417775</v>
       </c>
       <c r="J7">
-        <v>1.03980939577828</v>
+        <v>1.043164201573817</v>
       </c>
       <c r="K7">
-        <v>1.048723543089326</v>
+        <v>1.049413700651588</v>
       </c>
       <c r="L7">
-        <v>1.033858799021839</v>
+        <v>1.039732314112006</v>
       </c>
       <c r="M7">
-        <v>1.055882445951158</v>
+        <v>1.060630426675621</v>
       </c>
       <c r="N7">
-        <v>1.04128604438809</v>
+        <v>1.044645614392658</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>1.015712497008639</v>
+        <v>1.037530237171117</v>
       </c>
       <c r="D8">
-        <v>1.035079599995934</v>
+        <v>1.046074097638079</v>
       </c>
       <c r="E8">
-        <v>1.019899117193441</v>
+        <v>1.036305322908821</v>
       </c>
       <c r="F8">
-        <v>1.041458610364172</v>
+        <v>1.057096450420338</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.05463466173653</v>
+        <v>1.043665669043544</v>
       </c>
       <c r="J8">
-        <v>1.036874527662266</v>
+        <v>1.042514265128786</v>
       </c>
       <c r="K8">
-        <v>1.045804470641033</v>
+        <v>1.04877775786797</v>
       </c>
       <c r="L8">
-        <v>1.03081612328442</v>
+        <v>1.039035987588543</v>
       </c>
       <c r="M8">
-        <v>1.052104822465934</v>
+        <v>1.059770289267345</v>
       </c>
       <c r="N8">
-        <v>1.038347008422718</v>
+        <v>1.043994754963326</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>1.006124824662557</v>
+        <v>1.03556630858921</v>
       </c>
       <c r="D9">
-        <v>1.027758422395167</v>
+        <v>1.044520559004271</v>
       </c>
       <c r="E9">
-        <v>1.012330075662165</v>
+        <v>1.034643509846727</v>
       </c>
       <c r="F9">
-        <v>1.032575976424238</v>
+        <v>1.055154892667639</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.051234130629179</v>
+        <v>1.043104749445816</v>
       </c>
       <c r="J9">
-        <v>1.031463138146121</v>
+        <v>1.041368335260888</v>
       </c>
       <c r="K9">
-        <v>1.040416638472051</v>
+        <v>1.047655589870731</v>
       </c>
       <c r="L9">
-        <v>1.025226224082998</v>
+        <v>1.037810519028627</v>
       </c>
       <c r="M9">
-        <v>1.045161750791524</v>
+        <v>1.058256225253859</v>
       </c>
       <c r="N9">
-        <v>1.032927934112764</v>
+        <v>1.042847197743576</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.9994456029625476</v>
+        <v>1.034260092270597</v>
       </c>
       <c r="D10">
-        <v>1.022676299221329</v>
+        <v>1.043487450153435</v>
       </c>
       <c r="E10">
-        <v>1.007090903408209</v>
+        <v>1.033540250061773</v>
       </c>
       <c r="F10">
-        <v>1.026416267701396</v>
+        <v>1.053865065067088</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.048817916278989</v>
+        <v>1.042725681986404</v>
       </c>
       <c r="J10">
-        <v>1.027681234163225</v>
+        <v>1.040604012702413</v>
       </c>
       <c r="K10">
-        <v>1.036647850728936</v>
+        <v>1.04690650853476</v>
       </c>
       <c r="L10">
-        <v>1.021333298883845</v>
+        <v>1.03699466011456</v>
       </c>
       <c r="M10">
-        <v>1.040324404474849</v>
+        <v>1.057248025115485</v>
       </c>
       <c r="N10">
-        <v>1.029140659392422</v>
+        <v>1.042081789759398</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9964791669697456</v>
+        <v>1.033695233667058</v>
       </c>
       <c r="D11">
-        <v>1.020424147652715</v>
+        <v>1.043040737115542</v>
       </c>
       <c r="E11">
-        <v>1.004772640320719</v>
+        <v>1.033063643270504</v>
       </c>
       <c r="F11">
-        <v>1.023687855264696</v>
+        <v>1.053307657021933</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.047734121236183</v>
+        <v>1.04256033705398</v>
       </c>
       <c r="J11">
-        <v>1.025999153802337</v>
+        <v>1.040272980490282</v>
       </c>
       <c r="K11">
-        <v>1.034970906194707</v>
+        <v>1.046581934241339</v>
       </c>
       <c r="L11">
-        <v>1.019605109418833</v>
+        <v>1.03664166663216</v>
       </c>
       <c r="M11">
-        <v>1.038176464736467</v>
+        <v>1.056811762180315</v>
       </c>
       <c r="N11">
-        <v>1.027456190284485</v>
+        <v>1.041750287443557</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9953655851519598</v>
+        <v>1.033485533013863</v>
       </c>
       <c r="D12">
-        <v>1.019579508756084</v>
+        <v>1.042874904393918</v>
       </c>
       <c r="E12">
-        <v>1.003903724400131</v>
+        <v>1.032886779141842</v>
       </c>
       <c r="F12">
-        <v>1.022664772670374</v>
+        <v>1.053100777403712</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.047325711872717</v>
+        <v>1.042498740157908</v>
       </c>
       <c r="J12">
-        <v>1.025367385085174</v>
+        <v>1.040150010283843</v>
       </c>
       <c r="K12">
-        <v>1.034340970022487</v>
+        <v>1.046461341564643</v>
       </c>
       <c r="L12">
-        <v>1.018956515425975</v>
+        <v>1.036510592372273</v>
       </c>
       <c r="M12">
-        <v>1.037370262865696</v>
+        <v>1.056649760531699</v>
       </c>
       <c r="N12">
-        <v>1.026823524383278</v>
+        <v>1.04162714260532</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9956049916578953</v>
+        <v>1.033530509378153</v>
       </c>
       <c r="D13">
-        <v>1.019761058470404</v>
+        <v>1.042910471685631</v>
       </c>
       <c r="E13">
-        <v>1.004090469034019</v>
+        <v>1.032924709428034</v>
       </c>
       <c r="F13">
-        <v>1.022884670286464</v>
+        <v>1.053145146216695</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.047413584616083</v>
+        <v>1.042511961053095</v>
       </c>
       <c r="J13">
-        <v>1.025503221753514</v>
+        <v>1.040176388247864</v>
       </c>
       <c r="K13">
-        <v>1.034476416892521</v>
+        <v>1.046487210500316</v>
       </c>
       <c r="L13">
-        <v>1.019095947407172</v>
+        <v>1.036538706267777</v>
       </c>
       <c r="M13">
-        <v>1.037543580092317</v>
+        <v>1.056684508335605</v>
       </c>
       <c r="N13">
-        <v>1.026959553955268</v>
+        <v>1.041653558029076</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9963873602661575</v>
+        <v>1.033677897431845</v>
       </c>
       <c r="D14">
-        <v>1.020354496618171</v>
+        <v>1.043027027354569</v>
       </c>
       <c r="E14">
-        <v>1.004700976859874</v>
+        <v>1.033049020171514</v>
       </c>
       <c r="F14">
-        <v>1.023603485944978</v>
+        <v>1.053290552879549</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.047700482297874</v>
+        <v>1.04255524911137</v>
       </c>
       <c r="J14">
-        <v>1.025947075479944</v>
+        <v>1.040262815933599</v>
       </c>
       <c r="K14">
-        <v>1.034918980843927</v>
+        <v>1.046571966644781</v>
       </c>
       <c r="L14">
-        <v>1.019551634118744</v>
+        <v>1.036630831103142</v>
       </c>
       <c r="M14">
-        <v>1.038109996494006</v>
+        <v>1.056798370129311</v>
       </c>
       <c r="N14">
-        <v>1.0274040380049</v>
+        <v>1.041740108452037</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9968678338241341</v>
+        <v>1.033768723093939</v>
       </c>
       <c r="D15">
-        <v>1.02071905089711</v>
+        <v>1.043098853974123</v>
       </c>
       <c r="E15">
-        <v>1.005076085261328</v>
+        <v>1.033125634551797</v>
       </c>
       <c r="F15">
-        <v>1.024045082766576</v>
+        <v>1.053380164850083</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.047876469531178</v>
+        <v>1.04258189642835</v>
       </c>
       <c r="J15">
-        <v>1.026219616116003</v>
+        <v>1.040316065581503</v>
       </c>
       <c r="K15">
-        <v>1.035190717056418</v>
+        <v>1.046624183589401</v>
       </c>
       <c r="L15">
-        <v>1.01983150563464</v>
+        <v>1.03668759802429</v>
       </c>
       <c r="M15">
-        <v>1.038457865605713</v>
+        <v>1.056868530259219</v>
       </c>
       <c r="N15">
-        <v>1.027676965679923</v>
+        <v>1.04179343372055</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.9996408638217851</v>
+        <v>1.034297595834683</v>
       </c>
       <c r="D16">
-        <v>1.02282465195965</v>
+        <v>1.043517110447778</v>
       </c>
       <c r="E16">
-        <v>1.007243683230035</v>
+        <v>1.033571904465969</v>
       </c>
       <c r="F16">
-        <v>1.026596017400266</v>
+        <v>1.053902081654276</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.048889036335548</v>
+        <v>1.042736630039135</v>
       </c>
       <c r="J16">
-        <v>1.027791906990061</v>
+        <v>1.040625980735185</v>
       </c>
       <c r="K16">
-        <v>1.036758171800912</v>
+        <v>1.046928044996975</v>
       </c>
       <c r="L16">
-        <v>1.021447073750315</v>
+        <v>1.037018093118764</v>
       </c>
       <c r="M16">
-        <v>1.040465803159628</v>
+        <v>1.05727698478874</v>
       </c>
       <c r="N16">
-        <v>1.029251489387367</v>
+        <v>1.042103788989297</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>1.001360042235076</v>
+        <v>1.034629543397046</v>
       </c>
       <c r="D17">
-        <v>1.024131399893195</v>
+        <v>1.0437796415672</v>
       </c>
       <c r="E17">
-        <v>1.008589823566378</v>
+        <v>1.033852136766541</v>
       </c>
       <c r="F17">
-        <v>1.028179464732658</v>
+        <v>1.054229761009464</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.049514001965214</v>
+        <v>1.042833367966103</v>
       </c>
       <c r="J17">
-        <v>1.028766056166589</v>
+        <v>1.040820362984481</v>
       </c>
       <c r="K17">
-        <v>1.037729146315252</v>
+        <v>1.047118592007721</v>
       </c>
       <c r="L17">
-        <v>1.022448899883525</v>
+        <v>1.037225479557633</v>
       </c>
       <c r="M17">
-        <v>1.041710810091664</v>
+        <v>1.057533277468885</v>
       </c>
       <c r="N17">
-        <v>1.030227021967462</v>
+        <v>1.042298447283684</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>1.002355681306019</v>
+        <v>1.034823234251302</v>
       </c>
       <c r="D18">
-        <v>1.024888653407971</v>
+        <v>1.043932832187373</v>
       </c>
       <c r="E18">
-        <v>1.009370236843592</v>
+        <v>1.034015698695757</v>
       </c>
       <c r="F18">
-        <v>1.029097186560229</v>
+        <v>1.054420996435587</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.049874923924307</v>
+        <v>1.042889677125979</v>
       </c>
       <c r="J18">
-        <v>1.029329988286878</v>
+        <v>1.040933735493965</v>
       </c>
       <c r="K18">
-        <v>1.038291173790835</v>
+        <v>1.047229713818765</v>
       </c>
       <c r="L18">
-        <v>1.023029164503439</v>
+        <v>1.037346471369581</v>
       </c>
       <c r="M18">
-        <v>1.042431879902965</v>
+        <v>1.057682796948762</v>
       </c>
       <c r="N18">
-        <v>1.030791754936046</v>
+        <v>1.042411980795135</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>1.002693975643112</v>
+        <v>1.034889289900367</v>
       </c>
       <c r="D19">
-        <v>1.025146027709181</v>
+        <v>1.043985076465649</v>
       </c>
       <c r="E19">
-        <v>1.009635539170922</v>
+        <v>1.034071487210028</v>
       </c>
       <c r="F19">
-        <v>1.029409121972371</v>
+        <v>1.054486220627644</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.049997382467637</v>
+        <v>1.042908857320574</v>
       </c>
       <c r="J19">
-        <v>1.029521558231418</v>
+        <v>1.040972391302472</v>
       </c>
       <c r="K19">
-        <v>1.038482085135071</v>
+        <v>1.047267599877307</v>
       </c>
       <c r="L19">
-        <v>1.023226335273173</v>
+        <v>1.037387730957305</v>
       </c>
       <c r="M19">
-        <v>1.042676887590388</v>
+        <v>1.057733783978134</v>
       </c>
       <c r="N19">
-        <v>1.03098359693188</v>
+        <v>1.042450691499323</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>1.001176331905426</v>
+        <v>1.034593921162754</v>
       </c>
       <c r="D20">
-        <v>1.023991712673674</v>
+        <v>1.043751468175665</v>
       </c>
       <c r="E20">
-        <v>1.008445891034496</v>
+        <v>1.033822059394806</v>
       </c>
       <c r="F20">
-        <v>1.028010186662252</v>
+        <v>1.05419459317904</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.049447323844553</v>
+        <v>1.04282300093987</v>
       </c>
       <c r="J20">
-        <v>1.028661983120795</v>
+        <v>1.040799508361892</v>
       </c>
       <c r="K20">
-        <v>1.037625419308715</v>
+        <v>1.047098150283389</v>
       </c>
       <c r="L20">
-        <v>1.022341837766918</v>
+        <v>1.037203226172525</v>
       </c>
       <c r="M20">
-        <v>1.041577764840286</v>
+        <v>1.057505776751511</v>
       </c>
       <c r="N20">
-        <v>1.030122801126006</v>
+        <v>1.042277563045138</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9961573002380132</v>
+        <v>1.033634492192224</v>
       </c>
       <c r="D21">
-        <v>1.02017997004416</v>
+        <v>1.042992701940217</v>
       </c>
       <c r="E21">
-        <v>1.004521416006013</v>
+        <v>1.033012409080324</v>
       </c>
       <c r="F21">
-        <v>1.023392082041606</v>
+        <v>1.053247729628583</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.047616160924896</v>
+        <v>1.042542506831388</v>
       </c>
       <c r="J21">
-        <v>1.025816566378053</v>
+        <v>1.040237365403258</v>
       </c>
       <c r="K21">
-        <v>1.034788853567328</v>
+        <v>1.046547008927303</v>
       </c>
       <c r="L21">
-        <v>1.019417632112855</v>
+        <v>1.036603701430914</v>
       </c>
       <c r="M21">
-        <v>1.037943434696614</v>
+        <v>1.056764839390985</v>
       </c>
       <c r="N21">
-        <v>1.027273343565114</v>
+        <v>1.041714621779024</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.019999999999999</v>
       </c>
       <c r="C22">
-        <v>0.9929335541630829</v>
+        <v>1.033031915572006</v>
       </c>
       <c r="D22">
-        <v>1.017736387763205</v>
+        <v>1.042516194045244</v>
       </c>
       <c r="E22">
-        <v>1.00200857049129</v>
+        <v>1.032504327618912</v>
       </c>
       <c r="F22">
-        <v>1.020432555171235</v>
+        <v>1.052653363478276</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.046430943530473</v>
+        <v>1.0423651055572</v>
       </c>
       <c r="J22">
-        <v>1.02398706465258</v>
+        <v>1.039883865970997</v>
       </c>
       <c r="K22">
-        <v>1.032964485787565</v>
+        <v>1.046200303840339</v>
       </c>
       <c r="L22">
-        <v>1.017540341944977</v>
+        <v>1.036227007250909</v>
       </c>
       <c r="M22">
-        <v>1.03560982292379</v>
+        <v>1.056299248617305</v>
       </c>
       <c r="N22">
-        <v>1.025441243737345</v>
+        <v>1.041360620337022</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.99464917049058</v>
+        <v>1.033351290285389</v>
       </c>
       <c r="D23">
-        <v>1.019036350898125</v>
+        <v>1.042768746366862</v>
       </c>
       <c r="E23">
-        <v>1.003345099741324</v>
+        <v>1.032773577930102</v>
       </c>
       <c r="F23">
-        <v>1.022006909682108</v>
+        <v>1.052968356153508</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.047062531217916</v>
+        <v>1.042459247974574</v>
       </c>
       <c r="J23">
-        <v>1.024960854395481</v>
+        <v>1.040071267777334</v>
       </c>
       <c r="K23">
-        <v>1.033935592455998</v>
+        <v>1.046384115459063</v>
       </c>
       <c r="L23">
-        <v>1.018539297053665</v>
+        <v>1.036426675738114</v>
       </c>
       <c r="M23">
-        <v>1.036851639685746</v>
+        <v>1.056546041351105</v>
       </c>
       <c r="N23">
-        <v>1.026416416373376</v>
+        <v>1.04154828827542</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>1.001259364685173</v>
+        <v>1.034610017096476</v>
       </c>
       <c r="D24">
-        <v>1.024054846589286</v>
+        <v>1.043764198331382</v>
       </c>
       <c r="E24">
-        <v>1.008510942658714</v>
+        <v>1.033835649733521</v>
       </c>
       <c r="F24">
-        <v>1.028086694264195</v>
+        <v>1.054210483681771</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.049477463958651</v>
+        <v>1.042827685712641</v>
       </c>
       <c r="J24">
-        <v>1.0287090224336</v>
+        <v>1.040808931691077</v>
       </c>
       <c r="K24">
-        <v>1.0376723024253</v>
+        <v>1.047107387083865</v>
       </c>
       <c r="L24">
-        <v>1.022390227128649</v>
+        <v>1.037213281436695</v>
       </c>
       <c r="M24">
-        <v>1.041637898065067</v>
+        <v>1.057518203054704</v>
       </c>
       <c r="N24">
-        <v>1.03016990724003</v>
+        <v>1.042286999756532</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>1.00865217861846</v>
+        <v>1.036073497008339</v>
       </c>
       <c r="D25">
-        <v>1.02968539309651</v>
+        <v>1.044921738135638</v>
       </c>
       <c r="E25">
-        <v>1.014319664246696</v>
+        <v>1.035072322490757</v>
       </c>
       <c r="F25">
-        <v>1.034912762425185</v>
+        <v>1.055656039169866</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.052138852201358</v>
+        <v>1.043250666761177</v>
       </c>
       <c r="J25">
-        <v>1.032891830107026</v>
+        <v>1.041664656085761</v>
       </c>
       <c r="K25">
-        <v>1.041839718877714</v>
+        <v>1.047945873652395</v>
       </c>
       <c r="L25">
-        <v>1.026699679659434</v>
+        <v>1.038127140415362</v>
       </c>
       <c r="M25">
-        <v>1.046992242336621</v>
+        <v>1.058647446775342</v>
       </c>
       <c r="N25">
-        <v>1.034358654980126</v>
+        <v>1.043143939378008</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_199/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_3_199/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.019999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.037242964115984</v>
+        <v>1.014343143022083</v>
       </c>
       <c r="D2">
-        <v>1.045846838477866</v>
+        <v>1.034032134454732</v>
       </c>
       <c r="E2">
-        <v>1.036062008959118</v>
+        <v>1.018814468433627</v>
       </c>
       <c r="F2">
-        <v>1.056812275636661</v>
+        <v>1.040186949989895</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.043584320200308</v>
+        <v>1.054154478028944</v>
       </c>
       <c r="J2">
-        <v>1.042346897455935</v>
+        <v>1.036103155818591</v>
       </c>
       <c r="K2">
-        <v>1.048613931761185</v>
+        <v>1.045036865108271</v>
       </c>
       <c r="L2">
-        <v>1.038856826762764</v>
+        <v>1.030017765838537</v>
       </c>
       <c r="M2">
-        <v>1.059548960345595</v>
+        <v>1.051113429574384</v>
       </c>
       <c r="N2">
-        <v>1.043827149609183</v>
+        <v>1.037574541142546</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.038093349774712</v>
+        <v>1.018364566035642</v>
       </c>
       <c r="D3">
-        <v>1.046519585135164</v>
+        <v>1.037109938991466</v>
       </c>
       <c r="E3">
-        <v>1.03678250286227</v>
+        <v>1.022003304974247</v>
       </c>
       <c r="F3">
-        <v>1.057653666148145</v>
+        <v>1.043924384546829</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.043824413062562</v>
+        <v>1.055558906739847</v>
       </c>
       <c r="J3">
-        <v>1.042842079608715</v>
+        <v>1.038366813256248</v>
       </c>
       <c r="K3">
-        <v>1.049098562681563</v>
+        <v>1.047289028038382</v>
       </c>
       <c r="L3">
-        <v>1.039387080923744</v>
+        <v>1.032362182209259</v>
       </c>
       <c r="M3">
-        <v>1.060203993285993</v>
+        <v>1.05402447661175</v>
       </c>
       <c r="N3">
-        <v>1.044323034977418</v>
+        <v>1.03984141323341</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.038644175181942</v>
+        <v>1.020918059503756</v>
       </c>
       <c r="D4">
-        <v>1.046955368983055</v>
+        <v>1.039066875185678</v>
       </c>
       <c r="E4">
-        <v>1.037249576455663</v>
+        <v>1.024033741227206</v>
       </c>
       <c r="F4">
-        <v>1.058198951808635</v>
+        <v>1.046302188117013</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.043978760668798</v>
+        <v>1.056441244993804</v>
       </c>
       <c r="J4">
-        <v>1.043162402411283</v>
+        <v>1.039801403649773</v>
       </c>
       <c r="K4">
-        <v>1.049411940765784</v>
+        <v>1.048715597368319</v>
       </c>
       <c r="L4">
-        <v>1.039730385204654</v>
+        <v>1.033850501779137</v>
       </c>
       <c r="M4">
-        <v>1.060628044169536</v>
+        <v>1.055872146192329</v>
       </c>
       <c r="N4">
-        <v>1.044643812675107</v>
+        <v>1.041278040909844</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.038875876846415</v>
+        <v>1.021980269368476</v>
       </c>
       <c r="D5">
-        <v>1.047138683729103</v>
+        <v>1.039881514743365</v>
       </c>
       <c r="E5">
-        <v>1.037446139725525</v>
+        <v>1.024879679863122</v>
       </c>
       <c r="F5">
-        <v>1.058428391440818</v>
+        <v>1.047292393061576</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.044043406149814</v>
+        <v>1.056805984173474</v>
       </c>
       <c r="J5">
-        <v>1.043297042576971</v>
+        <v>1.040397476394887</v>
       </c>
       <c r="K5">
-        <v>1.04954363322608</v>
+        <v>1.049308154408416</v>
       </c>
       <c r="L5">
-        <v>1.039874755524607</v>
+        <v>1.034469511155363</v>
       </c>
       <c r="M5">
-        <v>1.060806361634949</v>
+        <v>1.056640526100266</v>
       </c>
       <c r="N5">
-        <v>1.044778644045273</v>
+        <v>1.041874960146626</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.038914788426794</v>
+        <v>1.022157967994865</v>
       </c>
       <c r="D6">
-        <v>1.047169469553113</v>
+        <v>1.040017830360138</v>
       </c>
       <c r="E6">
-        <v>1.037479155564776</v>
+        <v>1.025021274268666</v>
       </c>
       <c r="F6">
-        <v>1.058466927128178</v>
+        <v>1.047458108371871</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.044054246181247</v>
+        <v>1.056866865816335</v>
       </c>
       <c r="J6">
-        <v>1.043319647836843</v>
+        <v>1.040497152766723</v>
       </c>
       <c r="K6">
-        <v>1.049565741901355</v>
+        <v>1.049407231942022</v>
       </c>
       <c r="L6">
-        <v>1.039898998548328</v>
+        <v>1.034573059045253</v>
       </c>
       <c r="M6">
-        <v>1.060836304601036</v>
+        <v>1.056769055586982</v>
       </c>
       <c r="N6">
-        <v>1.044801281407207</v>
+        <v>1.041974778070343</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.03864727066374</v>
+        <v>1.020932296649698</v>
       </c>
       <c r="D7">
-        <v>1.046957818008831</v>
+        <v>1.039077791798267</v>
       </c>
       <c r="E7">
-        <v>1.037252202138309</v>
+        <v>1.024045074484755</v>
       </c>
       <c r="F7">
-        <v>1.058202016802683</v>
+        <v>1.046315455938946</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.043979625417775</v>
+        <v>1.056446142834045</v>
       </c>
       <c r="J7">
-        <v>1.043164201573817</v>
+        <v>1.03980939577828</v>
       </c>
       <c r="K7">
-        <v>1.049413700651588</v>
+        <v>1.048723543089326</v>
       </c>
       <c r="L7">
-        <v>1.039732314112006</v>
+        <v>1.033858799021839</v>
       </c>
       <c r="M7">
-        <v>1.060630426675621</v>
+        <v>1.055882445951158</v>
       </c>
       <c r="N7">
-        <v>1.044645614392658</v>
+        <v>1.04128604438809</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.037530237171117</v>
+        <v>1.015712497008639</v>
       </c>
       <c r="D8">
-        <v>1.046074097638079</v>
+        <v>1.035079599995934</v>
       </c>
       <c r="E8">
-        <v>1.036305322908821</v>
+        <v>1.019899117193441</v>
       </c>
       <c r="F8">
-        <v>1.057096450420338</v>
+        <v>1.041458610364173</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.043665669043544</v>
+        <v>1.054634661736531</v>
       </c>
       <c r="J8">
-        <v>1.042514265128786</v>
+        <v>1.036874527662266</v>
       </c>
       <c r="K8">
-        <v>1.04877775786797</v>
+        <v>1.045804470641033</v>
       </c>
       <c r="L8">
-        <v>1.039035987588543</v>
+        <v>1.03081612328442</v>
       </c>
       <c r="M8">
-        <v>1.059770289267345</v>
+        <v>1.052104822465934</v>
       </c>
       <c r="N8">
-        <v>1.043994754963326</v>
+        <v>1.038347008422718</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.03556630858921</v>
+        <v>1.006124824662557</v>
       </c>
       <c r="D9">
-        <v>1.044520559004271</v>
+        <v>1.027758422395167</v>
       </c>
       <c r="E9">
-        <v>1.034643509846727</v>
+        <v>1.012330075662165</v>
       </c>
       <c r="F9">
-        <v>1.055154892667639</v>
+        <v>1.032575976424238</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.043104749445816</v>
+        <v>1.051234130629179</v>
       </c>
       <c r="J9">
-        <v>1.041368335260888</v>
+        <v>1.03146313814612</v>
       </c>
       <c r="K9">
-        <v>1.047655589870731</v>
+        <v>1.04041663847205</v>
       </c>
       <c r="L9">
-        <v>1.037810519028627</v>
+        <v>1.025226224082997</v>
       </c>
       <c r="M9">
-        <v>1.058256225253859</v>
+        <v>1.045161750791524</v>
       </c>
       <c r="N9">
-        <v>1.042847197743576</v>
+        <v>1.032927934112763</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.034260092270597</v>
+        <v>0.9994456029625474</v>
       </c>
       <c r="D10">
-        <v>1.043487450153435</v>
+        <v>1.022676299221329</v>
       </c>
       <c r="E10">
-        <v>1.033540250061773</v>
+        <v>1.007090903408209</v>
       </c>
       <c r="F10">
-        <v>1.053865065067088</v>
+        <v>1.026416267701395</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.042725681986404</v>
+        <v>1.048817916278988</v>
       </c>
       <c r="J10">
-        <v>1.040604012702413</v>
+        <v>1.027681234163224</v>
       </c>
       <c r="K10">
-        <v>1.04690650853476</v>
+        <v>1.036647850728936</v>
       </c>
       <c r="L10">
-        <v>1.03699466011456</v>
+        <v>1.021333298883845</v>
       </c>
       <c r="M10">
-        <v>1.057248025115485</v>
+        <v>1.040324404474848</v>
       </c>
       <c r="N10">
-        <v>1.042081789759398</v>
+        <v>1.029140659392422</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.033695233667058</v>
+        <v>0.9964791669697447</v>
       </c>
       <c r="D11">
-        <v>1.043040737115542</v>
+        <v>1.020424147652715</v>
       </c>
       <c r="E11">
-        <v>1.033063643270504</v>
+        <v>1.004772640320718</v>
       </c>
       <c r="F11">
-        <v>1.053307657021933</v>
+        <v>1.023687855264695</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.04256033705398</v>
+        <v>1.047734121236183</v>
       </c>
       <c r="J11">
-        <v>1.040272980490282</v>
+        <v>1.025999153802337</v>
       </c>
       <c r="K11">
-        <v>1.046581934241339</v>
+        <v>1.034970906194706</v>
       </c>
       <c r="L11">
-        <v>1.03664166663216</v>
+        <v>1.019605109418832</v>
       </c>
       <c r="M11">
-        <v>1.056811762180315</v>
+        <v>1.038176464736466</v>
       </c>
       <c r="N11">
-        <v>1.041750287443557</v>
+        <v>1.027456190284484</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.033485533013863</v>
+        <v>0.9953655851519599</v>
       </c>
       <c r="D12">
-        <v>1.042874904393918</v>
+        <v>1.019579508756084</v>
       </c>
       <c r="E12">
-        <v>1.032886779141842</v>
+        <v>1.003903724400131</v>
       </c>
       <c r="F12">
-        <v>1.053100777403712</v>
+        <v>1.022664772670374</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.042498740157908</v>
+        <v>1.047325711872717</v>
       </c>
       <c r="J12">
-        <v>1.040150010283843</v>
+        <v>1.025367385085174</v>
       </c>
       <c r="K12">
-        <v>1.046461341564643</v>
+        <v>1.034340970022487</v>
       </c>
       <c r="L12">
-        <v>1.036510592372273</v>
+        <v>1.018956515425975</v>
       </c>
       <c r="M12">
-        <v>1.056649760531699</v>
+        <v>1.037370262865696</v>
       </c>
       <c r="N12">
-        <v>1.04162714260532</v>
+        <v>1.026823524383278</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.033530509378153</v>
+        <v>0.9956049916578946</v>
       </c>
       <c r="D13">
-        <v>1.042910471685631</v>
+        <v>1.019761058470403</v>
       </c>
       <c r="E13">
-        <v>1.032924709428034</v>
+        <v>1.004090469034019</v>
       </c>
       <c r="F13">
-        <v>1.053145146216695</v>
+        <v>1.022884670286463</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.042511961053095</v>
+        <v>1.047413584616083</v>
       </c>
       <c r="J13">
-        <v>1.040176388247864</v>
+        <v>1.025503221753514</v>
       </c>
       <c r="K13">
-        <v>1.046487210500316</v>
+        <v>1.03447641689252</v>
       </c>
       <c r="L13">
-        <v>1.036538706267777</v>
+        <v>1.019095947407171</v>
       </c>
       <c r="M13">
-        <v>1.056684508335605</v>
+        <v>1.037543580092316</v>
       </c>
       <c r="N13">
-        <v>1.041653558029076</v>
+        <v>1.026959553955268</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.033677897431845</v>
+        <v>0.9963873602661563</v>
       </c>
       <c r="D14">
-        <v>1.043027027354569</v>
+        <v>1.02035449661817</v>
       </c>
       <c r="E14">
-        <v>1.033049020171514</v>
+        <v>1.004700976859874</v>
       </c>
       <c r="F14">
-        <v>1.053290552879549</v>
+        <v>1.023603485944977</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.04255524911137</v>
+        <v>1.047700482297874</v>
       </c>
       <c r="J14">
-        <v>1.040262815933599</v>
+        <v>1.025947075479943</v>
       </c>
       <c r="K14">
-        <v>1.046571966644781</v>
+        <v>1.034918980843926</v>
       </c>
       <c r="L14">
-        <v>1.036630831103142</v>
+        <v>1.019551634118743</v>
       </c>
       <c r="M14">
-        <v>1.056798370129311</v>
+        <v>1.038109996494005</v>
       </c>
       <c r="N14">
-        <v>1.041740108452037</v>
+        <v>1.027404038004899</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.033768723093939</v>
+        <v>0.9968678338241332</v>
       </c>
       <c r="D15">
-        <v>1.043098853974123</v>
+        <v>1.020719050897108</v>
       </c>
       <c r="E15">
-        <v>1.033125634551797</v>
+        <v>1.005076085261327</v>
       </c>
       <c r="F15">
-        <v>1.053380164850083</v>
+        <v>1.024045082766575</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.04258189642835</v>
+        <v>1.047876469531178</v>
       </c>
       <c r="J15">
-        <v>1.040316065581503</v>
+        <v>1.026219616116002</v>
       </c>
       <c r="K15">
-        <v>1.046624183589401</v>
+        <v>1.035190717056417</v>
       </c>
       <c r="L15">
-        <v>1.03668759802429</v>
+        <v>1.019831505634639</v>
       </c>
       <c r="M15">
-        <v>1.056868530259219</v>
+        <v>1.038457865605712</v>
       </c>
       <c r="N15">
-        <v>1.04179343372055</v>
+        <v>1.027676965679923</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.034297595834683</v>
+        <v>0.9996408638217843</v>
       </c>
       <c r="D16">
-        <v>1.043517110447778</v>
+        <v>1.022824651959648</v>
       </c>
       <c r="E16">
-        <v>1.033571904465969</v>
+        <v>1.007243683230034</v>
       </c>
       <c r="F16">
-        <v>1.053902081654276</v>
+        <v>1.026596017400266</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.042736630039135</v>
+        <v>1.048889036335547</v>
       </c>
       <c r="J16">
-        <v>1.040625980735185</v>
+        <v>1.027791906990061</v>
       </c>
       <c r="K16">
-        <v>1.046928044996975</v>
+        <v>1.036758171800911</v>
       </c>
       <c r="L16">
-        <v>1.037018093118764</v>
+        <v>1.021447073750314</v>
       </c>
       <c r="M16">
-        <v>1.05727698478874</v>
+        <v>1.040465803159627</v>
       </c>
       <c r="N16">
-        <v>1.042103788989297</v>
+        <v>1.029251489387366</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.034629543397046</v>
+        <v>1.001360042235075</v>
       </c>
       <c r="D17">
-        <v>1.0437796415672</v>
+        <v>1.024131399893195</v>
       </c>
       <c r="E17">
-        <v>1.033852136766541</v>
+        <v>1.008589823566378</v>
       </c>
       <c r="F17">
-        <v>1.054229761009464</v>
+        <v>1.028179464732659</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.042833367966103</v>
+        <v>1.049514001965214</v>
       </c>
       <c r="J17">
-        <v>1.040820362984481</v>
+        <v>1.028766056166589</v>
       </c>
       <c r="K17">
-        <v>1.047118592007721</v>
+        <v>1.037729146315252</v>
       </c>
       <c r="L17">
-        <v>1.037225479557633</v>
+        <v>1.022448899883525</v>
       </c>
       <c r="M17">
-        <v>1.057533277468885</v>
+        <v>1.041710810091664</v>
       </c>
       <c r="N17">
-        <v>1.042298447283684</v>
+        <v>1.030227021967461</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.034823234251302</v>
+        <v>1.002355681306018</v>
       </c>
       <c r="D18">
-        <v>1.043932832187373</v>
+        <v>1.02488865340797</v>
       </c>
       <c r="E18">
-        <v>1.034015698695757</v>
+        <v>1.009370236843591</v>
       </c>
       <c r="F18">
-        <v>1.054420996435587</v>
+        <v>1.029097186560228</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.042889677125979</v>
+        <v>1.049874923924306</v>
       </c>
       <c r="J18">
-        <v>1.040933735493965</v>
+        <v>1.029329988286877</v>
       </c>
       <c r="K18">
-        <v>1.047229713818765</v>
+        <v>1.038291173790835</v>
       </c>
       <c r="L18">
-        <v>1.037346471369581</v>
+        <v>1.023029164503438</v>
       </c>
       <c r="M18">
-        <v>1.057682796948762</v>
+        <v>1.042431879902964</v>
       </c>
       <c r="N18">
-        <v>1.042411980795135</v>
+        <v>1.030791754936045</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.034889289900367</v>
+        <v>1.002693975643112</v>
       </c>
       <c r="D19">
-        <v>1.043985076465649</v>
+        <v>1.025146027709182</v>
       </c>
       <c r="E19">
-        <v>1.034071487210028</v>
+        <v>1.009635539170922</v>
       </c>
       <c r="F19">
-        <v>1.054486220627644</v>
+        <v>1.029409121972372</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.042908857320574</v>
+        <v>1.049997382467637</v>
       </c>
       <c r="J19">
-        <v>1.040972391302472</v>
+        <v>1.029521558231419</v>
       </c>
       <c r="K19">
-        <v>1.047267599877307</v>
+        <v>1.038482085135072</v>
       </c>
       <c r="L19">
-        <v>1.037387730957305</v>
+        <v>1.023226335273173</v>
       </c>
       <c r="M19">
-        <v>1.057733783978134</v>
+        <v>1.042676887590388</v>
       </c>
       <c r="N19">
-        <v>1.042450691499323</v>
+        <v>1.030983596931881</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.034593921162754</v>
+        <v>1.001176331905426</v>
       </c>
       <c r="D20">
-        <v>1.043751468175665</v>
+        <v>1.023991712673674</v>
       </c>
       <c r="E20">
-        <v>1.033822059394806</v>
+        <v>1.008445891034496</v>
       </c>
       <c r="F20">
-        <v>1.05419459317904</v>
+        <v>1.028010186662251</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.04282300093987</v>
+        <v>1.049447323844553</v>
       </c>
       <c r="J20">
-        <v>1.040799508361892</v>
+        <v>1.028661983120795</v>
       </c>
       <c r="K20">
-        <v>1.047098150283389</v>
+        <v>1.037625419308714</v>
       </c>
       <c r="L20">
-        <v>1.037203226172525</v>
+        <v>1.022341837766919</v>
       </c>
       <c r="M20">
-        <v>1.057505776751511</v>
+        <v>1.041577764840285</v>
       </c>
       <c r="N20">
-        <v>1.042277563045138</v>
+        <v>1.030122801126005</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.033634492192224</v>
+        <v>0.996157300238013</v>
       </c>
       <c r="D21">
-        <v>1.042992701940217</v>
+        <v>1.02017997004416</v>
       </c>
       <c r="E21">
-        <v>1.033012409080324</v>
+        <v>1.004521416006012</v>
       </c>
       <c r="F21">
-        <v>1.053247729628583</v>
+        <v>1.023392082041606</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.042542506831388</v>
+        <v>1.047616160924896</v>
       </c>
       <c r="J21">
-        <v>1.040237365403258</v>
+        <v>1.025816566378053</v>
       </c>
       <c r="K21">
-        <v>1.046547008927303</v>
+        <v>1.034788853567328</v>
       </c>
       <c r="L21">
-        <v>1.036603701430914</v>
+        <v>1.019417632112855</v>
       </c>
       <c r="M21">
-        <v>1.056764839390985</v>
+        <v>1.037943434696614</v>
       </c>
       <c r="N21">
-        <v>1.041714621779024</v>
+        <v>1.027273343565114</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.019999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.033031915572006</v>
+        <v>0.9929335541630822</v>
       </c>
       <c r="D22">
-        <v>1.042516194045244</v>
+        <v>1.017736387763204</v>
       </c>
       <c r="E22">
-        <v>1.032504327618912</v>
+        <v>1.002008570491289</v>
       </c>
       <c r="F22">
-        <v>1.052653363478276</v>
+        <v>1.020432555171234</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.0423651055572</v>
+        <v>1.046430943530473</v>
       </c>
       <c r="J22">
-        <v>1.039883865970997</v>
+        <v>1.02398706465258</v>
       </c>
       <c r="K22">
-        <v>1.046200303840339</v>
+        <v>1.032964485787564</v>
       </c>
       <c r="L22">
-        <v>1.036227007250909</v>
+        <v>1.017540341944977</v>
       </c>
       <c r="M22">
-        <v>1.056299248617305</v>
+        <v>1.03560982292379</v>
       </c>
       <c r="N22">
-        <v>1.041360620337022</v>
+        <v>1.025441243737344</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.033351290285389</v>
+        <v>0.9946491704905789</v>
       </c>
       <c r="D23">
-        <v>1.042768746366862</v>
+        <v>1.019036350898124</v>
       </c>
       <c r="E23">
-        <v>1.032773577930102</v>
+        <v>1.003345099741323</v>
       </c>
       <c r="F23">
-        <v>1.052968356153508</v>
+        <v>1.022006909682108</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.042459247974574</v>
+        <v>1.047062531217915</v>
       </c>
       <c r="J23">
-        <v>1.040071267777334</v>
+        <v>1.02496085439548</v>
       </c>
       <c r="K23">
-        <v>1.046384115459063</v>
+        <v>1.033935592455997</v>
       </c>
       <c r="L23">
-        <v>1.036426675738114</v>
+        <v>1.018539297053664</v>
       </c>
       <c r="M23">
-        <v>1.056546041351105</v>
+        <v>1.036851639685745</v>
       </c>
       <c r="N23">
-        <v>1.04154828827542</v>
+        <v>1.026416416373375</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.034610017096476</v>
+        <v>1.001259364685172</v>
       </c>
       <c r="D24">
-        <v>1.043764198331382</v>
+        <v>1.024054846589285</v>
       </c>
       <c r="E24">
-        <v>1.033835649733521</v>
+        <v>1.008510942658713</v>
       </c>
       <c r="F24">
-        <v>1.054210483681771</v>
+        <v>1.028086694264194</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.042827685712641</v>
+        <v>1.04947746395865</v>
       </c>
       <c r="J24">
-        <v>1.040808931691077</v>
+        <v>1.0287090224336</v>
       </c>
       <c r="K24">
-        <v>1.047107387083865</v>
+        <v>1.037672302425299</v>
       </c>
       <c r="L24">
-        <v>1.037213281436695</v>
+        <v>1.022390227128648</v>
       </c>
       <c r="M24">
-        <v>1.057518203054704</v>
+        <v>1.041637898065066</v>
       </c>
       <c r="N24">
-        <v>1.042286999756532</v>
+        <v>1.030169907240029</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.036073497008339</v>
+        <v>1.00865217861846</v>
       </c>
       <c r="D25">
-        <v>1.044921738135638</v>
+        <v>1.029685393096509</v>
       </c>
       <c r="E25">
-        <v>1.035072322490757</v>
+        <v>1.014319664246695</v>
       </c>
       <c r="F25">
-        <v>1.055656039169866</v>
+        <v>1.034912762425185</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.043250666761177</v>
+        <v>1.052138852201358</v>
       </c>
       <c r="J25">
-        <v>1.041664656085761</v>
+        <v>1.032891830107025</v>
       </c>
       <c r="K25">
-        <v>1.047945873652395</v>
+        <v>1.041839718877714</v>
       </c>
       <c r="L25">
-        <v>1.038127140415362</v>
+        <v>1.026699679659433</v>
       </c>
       <c r="M25">
-        <v>1.058647446775342</v>
+        <v>1.046992242336621</v>
       </c>
       <c r="N25">
-        <v>1.043143939378008</v>
+        <v>1.034358654980126</v>
       </c>
     </row>
   </sheetData>
